--- a/JournalTravail/Journal_Travail_Rashiti.xlsx
+++ b/JournalTravail/Journal_Travail_Rashiti.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F47988A-378F-4237-8D18-DD891D9DD691}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE4E72AC-FB1B-4AF7-8BE5-739114C4F674}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Recherches d'imprimeries pour faire les reliures IBICO</t>
+  </si>
+  <si>
+    <t>Debug du GUI avec Aurelien, modification des SVGs pour Saint-Roch de certaines salles puis nouveau format pour l'étage U et R</t>
   </si>
 </sst>
 </file>
@@ -536,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,12 +947,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>43242</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
@@ -987,7 +994,7 @@
       </c>
       <c r="C46" s="9">
         <f>SUM(C5:C45)</f>
-        <v>93.5</v>
+        <v>96.75</v>
       </c>
     </row>
   </sheetData>
